--- a/Simulations/Pre-emptive/DDT - 3742524 - covid.xlsx
+++ b/Simulations/Pre-emptive/DDT - 3742524 - covid.xlsx
@@ -386,7 +386,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -397,7 +397,7 @@
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -905,7 +905,7 @@
         <v>0.2</v>
       </c>
       <c r="C36">
-        <v>2562</v>
+        <v>3562</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -919,7 +919,7 @@
         <v>0.4</v>
       </c>
       <c r="C37">
-        <v>2341</v>
+        <v>3341</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -933,7 +933,7 @@
         <v>0.6</v>
       </c>
       <c r="C38">
-        <v>2469</v>
+        <v>3469</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -947,7 +947,7 @@
         <v>0.8</v>
       </c>
       <c r="C39">
-        <v>2374</v>
+        <v>3374</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -961,7 +961,7 @@
         <v>1</v>
       </c>
       <c r="C40">
-        <v>2303</v>
+        <v>3303</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -975,7 +975,7 @@
         <v>1.2</v>
       </c>
       <c r="C41">
-        <v>2197</v>
+        <v>3197</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -989,7 +989,7 @@
         <v>1.4</v>
       </c>
       <c r="C42">
-        <v>2049</v>
+        <v>3049</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -1003,7 +1003,7 @@
         <v>1.6</v>
       </c>
       <c r="C43">
-        <v>1856</v>
+        <v>2856</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -1017,7 +1017,7 @@
         <v>1.8</v>
       </c>
       <c r="C44">
-        <v>1913</v>
+        <v>2913</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -1031,7 +1031,7 @@
         <v>2</v>
       </c>
       <c r="C45">
-        <v>1747</v>
+        <v>2747</v>
       </c>
       <c r="D45">
         <v>1</v>
